--- a/src/Service/PAM/samples/SAMPLE_Rapport_AEM.xlsx
+++ b/src/Service/PAM/samples/SAMPLE_Rapport_AEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\aleck\www\rapportNav\src\Service\PAM\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A98435-BF1A-40C3-AFB1-66DBE13A6B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0254D9-FA68-442F-9FDC-22D64D3FEAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ANNEXE II</t>
   </si>
@@ -98,12 +98,24 @@
   <si>
     <t>7.- Souveraineté et protection des intérêts nationaux</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>THEMIS</t>
+  </si>
+  <si>
+    <t>Manche Est Mer du Nord</t>
+  </si>
+  <si>
+    <t>A envoyer sur la boite d'unité du bureau SMC3 : Am3.Am.Dam.Dgitm@developpement-durable.gouv.fr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -215,13 +227,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -239,6 +244,20 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -366,7 +385,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
@@ -385,17 +404,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,7 +435,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,12 +449,9 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="18" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -444,6 +464,7 @@
     <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8"/>
     <cellStyle name="Neutral" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
@@ -763,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -784,17 +805,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -840,13 +861,15 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -869,9 +892,9 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -923,13 +946,15 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -952,13 +977,15 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -981,13 +1008,15 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1010,13 +1039,13 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1092,8 +1121,8 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1"/>
@@ -1122,7 +1151,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1149,70 +1178,70 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="7" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -1220,29 +1249,29 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <f>SUM(F16+G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -1250,325 +1279,325 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <f t="shared" ref="H17:H19" si="0">SUM(F17+G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
     </row>
     <row r="18" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
         <f>SUM(F22+G22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <f t="shared" ref="H23:H25" si="1">SUM(F23+G23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
@@ -1576,506 +1605,506 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <f>SUM(F28+G28)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
         <f t="shared" ref="H29:H51" si="2">SUM(F29+G29)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
@@ -2083,118 +2112,118 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -2202,43 +2231,43 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="12"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2262,13 +2291,13 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="12"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3236,16 +3265,24 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A31:E31"/>
@@ -3258,28 +3295,23 @@
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="mailto:Am3.Am.Dam.Dgitm@developpement-durable.gouv.fr" xr:uid="{9703807A-0C3C-47D7-ACAD-5B1D20137350}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78736111111111096" right="0.78736111111111096" top="1.2800000000000002" bottom="1.9113888888888899" header="0.88625000000000009" footer="0"/>
-  <pageSetup paperSize="0" scale="51" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup scale="51" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"Arial1,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
